--- a/evaluation/results/hybrid/pca/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_3/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
       <c r="C2">
-        <v>0.475609756097561</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D2">
-        <v>0.07303370786516854</v>
+        <v>0.7827715355805244</v>
       </c>
       <c r="E2">
-        <v>0.1266233766233766</v>
+        <v>0.693200663349917</v>
       </c>
       <c r="F2">
-        <v>0.08791704238052299</v>
+        <v>0.7443019943019943</v>
       </c>
       <c r="G2">
-        <v>0.07549136390708755</v>
+        <v>0.7750677506775068</v>
       </c>
       <c r="H2">
-        <v>0.4962546816479401</v>
+        <v>0.6968396246265203</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="J2">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="K2">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="L2">
-        <v>495</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4979716024340771</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="C2">
-        <v>0.9194756554307116</v>
+        <v>0.5243445692883895</v>
       </c>
       <c r="D2">
-        <v>0.6460526315789473</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.475609756097561</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="C3">
-        <v>0.07303370786516854</v>
+        <v>0.7827715355805244</v>
       </c>
       <c r="D3">
-        <v>0.1266233766233766</v>
+        <v>0.693200663349917</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
       <c r="C4">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
       <c r="D4">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
       <c r="E4">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.486790679265819</v>
+        <v>0.6645472582972582</v>
       </c>
       <c r="C5">
-        <v>0.4962546816479401</v>
+        <v>0.6535580524344569</v>
       </c>
       <c r="D5">
-        <v>0.386338004101162</v>
+        <v>0.6476756004921629</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.486790679265819</v>
+        <v>0.6645472582972582</v>
       </c>
       <c r="C6">
-        <v>0.4962546816479401</v>
+        <v>0.653558052434457</v>
       </c>
       <c r="D6">
-        <v>0.386338004101162</v>
+        <v>0.6476756004921628</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>491</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>495</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
